--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -575,7 +575,7 @@
         <v>45596.71262731482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45897.45741898148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45743.77388888889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45596.68342592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44951</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45861.36827546296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45957.58099537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46010.48835648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45044</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45671.74186342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45918.58255787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45958.57498842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>46036.42396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45596.64424768519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45597.58802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45798.44936342593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45931.54203703703</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45930.56317129629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45763.67392361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45103</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45460.60101851852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44572.54736111111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44518.32188657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44881.53428240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44586</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44725.67578703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44809</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44741.63288194445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44462.50556712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44692</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44278.46018518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44551.74547453703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44274.7304050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44414</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44425.66618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44860.805625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44252.66072916667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44830.3705787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44677</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44328.46116898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44328.46275462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44547</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44274.7391087963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44431</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44452.69899305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44722.57311342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44846</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44421</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44588.48373842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44602.56170138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44624.65938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44348</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44357.60618055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44356</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44518.30800925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44645</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44255</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44413</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>44830.36393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44827</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44255</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44740.24939814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44573</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44571</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44809</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44356</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44834</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>44574.31305555555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44574.31621527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44384</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44525</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44851</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44830.37378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44749.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44882.59640046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44313</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44526</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44528</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44518.32844907408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44245</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44484.72994212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44830.37873842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44809</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44984.34011574074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45187.97777777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44953</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45387.38473379629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44343.63775462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44615</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45079</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45217</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>45454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>45747.65967592593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44879.56688657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45001</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45183.73969907407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44606.48096064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45114</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45575.32675925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45343</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45561.36263888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44566.78021990741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44266</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45302</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45597.48641203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45485.32336805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44992.55997685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45762.59148148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45446</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44734.48049768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44748.70547453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45742.56415509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45798.36552083334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45798.3758912037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45798.38299768518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45798.36651620371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44952.48636574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>45215.66366898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>45798.38623842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45798.38446759259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45798.38162037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44935</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>45484.66387731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45173.66935185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45560.94553240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44937.45157407408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>45803.54116898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45805.60946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45805.60137731482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45805.60756944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45805.60854166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44750.37049768519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>45889.25898148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45540</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>45889.25998842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45440.54326388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45798.44715277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>45812.34155092593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>45827.54061342592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44271</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45827.53986111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45894.88730324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45048.78258101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45546.97644675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45894.88547453703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45894.48984953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45894.88321759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44398</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44537</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45429.63706018519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44459</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45743.77516203704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45898.34202546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45898.35184027778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45819.37326388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45279.65524305555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45817</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45202.48847222222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44575</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45824.46805555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45825.44871527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44967.7121875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44967.77166666667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45401.83496527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45112</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45911.59302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>45803</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44901.56424768519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45918.37381944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>44942</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>45800</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>44935</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45831.48467592592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45923.56734953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45155.49674768518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44890.57740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45470</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44914.73873842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45237.68737268518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44830.34822916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45929.54412037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45929.54755787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45926.35297453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44645</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45931.48486111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45930.47261574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45930.47936342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45930.57724537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>45930.58170138889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45930.58704861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44830.36934027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44830.37002314815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>45930.56010416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44830.37288194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45343.63946759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45187</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45931.55253472222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45839.43380787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45930.5966550926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45931.4877662037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45930.59270833333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45933.55480324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45933.55230324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45839.60538194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>45933.55594907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>44628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45932.48122685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>45817</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>44967.70900462963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>44967.72672453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>45841.67475694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>45937.42811342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45841.66960648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44865</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44911</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45939.27697916667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45938.33863425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45938.33969907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>44887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45939.98322916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44931</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45943.4846412037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45316.31804398148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45099</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45670</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45335.39863425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45069.55658564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45945.44903935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45439.67248842592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45575.31537037037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45726.65693287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45945.43571759259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45215</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45215.64910879629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45726.43296296296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45946.46980324074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44592.5737962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45726.66458333333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45575.87788194444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45805</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45798</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45155.57263888889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44881.58206018519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45793.54444444444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45747.65809027778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45621</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45954.28444444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>45684.5433449074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45484.64741898148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45659.34769675926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45575.33030092593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45279.66266203704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45593.49686342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45769.51258101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45693.43223379629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44776</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44951.33428240741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45351.49194444445</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45958.58180555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45775.3942824074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45114.6471875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45460.61841435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45964.66417824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45805.54620370371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45880.44321759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>45965.67278935185</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>45964</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45964.66202546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45964.51869212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45069</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45615.60596064815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45092</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45971.47325231481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45971.47230324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45971.56327546296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45973.63788194444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45484.45675925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45484.45920138889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44539</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44748</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44942.37232638889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45425.47164351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44725.66600694445</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45974.56300925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45603.47010416666</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45427.4122337963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45099.55199074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45985</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45624.7716087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44433</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45982</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44516</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45992.34927083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45768.82865740741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45992.30050925926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45205</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44676</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45992.30173611111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45763.67142361111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>46034.2150925926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44613</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45294.60003472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45161</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45029</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45614.53487268519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45589.30626157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>46041.8458912037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>46041.85267361111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45266</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45602.39106481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45614.54820601852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45266.74684027778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45266.753125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45224</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44984</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45428.56901620371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45562.4177662037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44942</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44942.36666666667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>46003.55443287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45998</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>46003.57324074074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45279.61494212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45279</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44271</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>44942.38266203704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45775.39275462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>46048.53619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>44935.58886574074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>45695.3799074074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>44819</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>45590.60849537037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>46050.52995370371</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45439.67638888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45187</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>46055.5268287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45742.57196759259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>46055.3728125</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45562.40653935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>46001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44830.38262731482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>46048.53760416667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45481.49856481481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>46048.53270833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45740.59944444444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45453</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>46058.70769675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>46043</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45183.73592592592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45526.61543981481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45351.48571759259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>45473</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45302</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44265</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45427</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45440.54711805555</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44637</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44998</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45685.62975694444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44608.74425925926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44608.74908564815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44448</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45378.45327546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44725.680625</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44987.29300925926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45377.77662037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45607.44199074074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45377</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44742.50715277778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45243</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45243</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44385.55951388889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44804</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44434</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44427</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45237</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>44516</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>44782</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45743.77622685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44573</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45743.77284722222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44999</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45180.44695601852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44894.51788194444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45476.37353009259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>44893</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44358</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>44358</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>45030</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44930</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45266</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44679.62341435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44776</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45229.61693287037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45204.63829861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>44725.67675925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45775.39516203704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44830.37741898148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44830.34554398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45329.43833333333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45327</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45762.61836805556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45762.61935185185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44931.32121527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45343</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45091.86737268518</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44907</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45777.4182175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45762.59059027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45783.67818287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45615.55868055556</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45781.58949074074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>45708</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>45632</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>44903.7278125</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45469.7152662037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45786.57274305556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>45733.33138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45602.42363425926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45589</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45604</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45390.5737037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>45222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>45791.4412037037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30171,7 +30171,7 @@
         <v>45793.46055555555</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45666.60127314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45547.65758101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45629</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45644.45380787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45630</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -575,7 +575,7 @@
         <v>45596.71262731482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45897.45741898148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45743.77388888889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45596.68342592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44951</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45861.36827546296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45957.58099537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46010.48835648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45044</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45671.74186342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45918.58255787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45958.57498842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>46036.42396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45596.64424768519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45597.58802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45798.44936342593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45931.54203703703</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45930.56317129629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45763.67392361111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45103</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45460.60101851852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44572.54736111111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44518.32188657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44881.53428240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44586</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44725.67578703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44809</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44741.63288194445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44462.50556712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44692</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44278.46018518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44551.74547453703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44274.7304050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44414</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44425.66618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44860.805625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44252.66072916667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44830.3705787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44677</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44328.46116898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44328.46275462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44547</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44274.7391087963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44431</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44452.69899305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44722.57311342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44846</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44421</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44588.48373842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44602.56170138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44624.65938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44348</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44357.60618055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44356</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44518.30800925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44645</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44255</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44413</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>44830.36393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44827</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44255</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44740.24939814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44573</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44571</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44809</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44356</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44834</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>44574.31305555555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44574.31621527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44384</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44525</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44851</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44830.37378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44749.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44882.59640046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44313</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44526</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44528</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44518.32844907408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44245</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44484.72994212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44830.37873842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44809</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44984.34011574074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45187.97777777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44953</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45387.38473379629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44343.63775462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44615</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45079</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45217</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>45454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>45747.65967592593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44879.56688657407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45001</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>45183.73969907407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44606.48096064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45114</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45575.32675925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>45343</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44747</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45561.36263888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44566.78021990741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44266</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45302</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45597.48641203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>45485.32336805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44992.55997685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45762.59148148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45446</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>44734.48049768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44748.70547453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>45742.56415509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45689</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45798.36552083334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45798.3758912037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45798.38299768518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45798.36651620371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44952.48636574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         <v>45215.66366898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>45798.38623842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>45798.38446759259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45798.38162037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44935</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>45484.66387731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45173.66935185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45560.94553240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44937.45157407408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>45803.54116898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45805.60946759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45805.60137731482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45805.60756944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45805.60854166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44750.37049768519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>45889.25898148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45540</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>45889.25998842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45440.54326388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45798.44715277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>45812.34155092593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>45827.54061342592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>45111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44271</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45827.53986111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45894.88730324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>45048.78258101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45546.97644675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45894.88547453703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45894.48984953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45894.88321759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44398</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44537</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45429.63706018519</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44459</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45743.77516203704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45898.34202546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45898.35184027778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45819.37326388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45279.65524305555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45817</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45202.48847222222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44575</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45824.46805555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>45825.44871527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44967.7121875</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44967.77166666667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45401.83496527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45112</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45911.59302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>45803</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44776</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44901.56424768519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45918.37381944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>44942</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>45800</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>44935</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45831.48467592592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45923.56734953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45155.49674768518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44890.57740740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45470</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44914.73873842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45237.68737268518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44830.34822916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45929.54412037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45929.54755787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45926.35297453704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44645</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45931.48486111111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45930.47261574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45930.47936342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45930.57724537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>45930.58170138889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45930.58704861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44830.36934027778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44830.37002314815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>45930.56010416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>44830.37288194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45343.63946759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45187</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45931.55253472222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45839.43380787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45930.5966550926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45931.4877662037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45930.59270833333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45933.55480324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45933.55230324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45839.60538194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>45933.55594907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>44628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45932.48122685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>44487</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
         <v>45817</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>44967.70900462963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16411,7 +16411,7 @@
         <v>44967.72672453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>45841.67475694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>45937.42811342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45841.66960648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44865</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44911</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45939.27697916667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45938.33863425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45938.33969907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>44887</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45939.98322916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44931</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45943.4846412037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45316.31804398148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45099</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45670</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45335.39863425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45069.55658564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45945.44903935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45439.67248842592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45575.31537037037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45726.65693287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45945.43571759259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45215</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45215.64910879629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45726.43296296296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45946.46980324074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44592.5737962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45726.66458333333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45575.87788194444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45805</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45798</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45155.57263888889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>45861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44881.58206018519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45793.54444444444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45747.65809027778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45621</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45954.28444444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>45684.5433449074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>45484.64741898148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45659.34769675926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45575.33030092593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45279.66266203704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45593.49686342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45769.51258101852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45693.43223379629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44776</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44951.33428240741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45351.49194444445</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44418</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45958.58180555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45775.3942824074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45114.6471875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45460.61841435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45964.66417824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45805.54620370371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45880.44321759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>45965.67278935185</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>45964</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45964.66202546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45964.51869212963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45069</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45615.60596064815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45092</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45971.47325231481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45243</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45971.47230324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45971.56327546296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45973.63788194444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45484.45675925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45484.45920138889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44539</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44748</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44942.37232638889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45425.47164351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44725.66600694445</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45974.56300925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45603.47010416666</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45427.4122337963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45099.55199074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45985</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45624.7716087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44433</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45982</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44516</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45992</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>45992.34927083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>45768.82865740741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45992.30050925926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45205</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44676</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45992.30173611111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45763.67142361111</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>46034.2150925926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44613</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45294.60003472222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>45161</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>45029</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45614.53487268519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45589.30626157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>46041.8458912037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>46041.85267361111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45266</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45602.39106481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45614.54820601852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45266.74684027778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45266.753125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45266</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45224</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44984</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45428.56901620371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45562.4177662037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44942</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44942.36666666667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>46003.55443287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45998</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>46003.57324074074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>45279.61494212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45279</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>44271</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>44942.38266203704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45775.39275462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>46048.53619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>44935.58886574074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>45695.3799074074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>44819</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>45590.60849537037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>46050.52995370371</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45439.67638888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45187</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>46055.5268287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45742.57196759259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>46055.3728125</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45562.40653935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44503</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>46001</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44830.38262731482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>46048.53760416667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45481.49856481481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>46048.53270833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45061</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45740.59944444444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45453</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>46058.70769675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>46043</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45183.73592592592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45526.61543981481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45351.48571759259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>45473</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45302</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44265</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45427</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45440.54711805555</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44637</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44998</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45685.62975694444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44608.74425925926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44608.74908564815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44448</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>45378.45327546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44725.680625</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44987.29300925926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45377.77662037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45607.44199074074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45377</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44742.50715277778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45243</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45243</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44385.55951388889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>45273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44804</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44434</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44427</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45237</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>44516</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>44782</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45743.77622685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44573</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45743.77284722222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44999</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>45180.44695601852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44445</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44894.51788194444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>45476.37353009259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27645,7 +27645,7 @@
         <v>44893</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44358</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>44358</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>45030</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44641</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44494</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44930</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45266</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44679.62341435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44776</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45229.61693287037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>45204.63829861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>44725.67675925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45775.39516203704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44830.37741898148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44830.34554398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45329.43833333333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45327</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45762.61836805556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45762.61935185185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44931.32121527778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45343</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45091.86737268518</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44907</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45777.4182175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45762.59059027778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45783.67818287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45615.55868055556</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45781.58949074074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>45708</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>45632</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>44903.7278125</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45469.7152662037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45786.57274305556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>45733.33138888889</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45602.42363425926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45589</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45604</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45390.5737037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>45222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30114,7 +30114,7 @@
         <v>45791.4412037037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30171,7 +30171,7 @@
         <v>45793.46055555555</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45666.60127314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45547.65758101852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45629</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45644.45380787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45630</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -575,7 +575,7 @@
         <v>45596.71262731482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45897.45741898148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45743.77388888889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45596.68342592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45861.36827546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45957.58099537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46010.48835648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45044</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45671.74186342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45918.58255787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45958.57498842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>46036.42396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45596.64424768519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45597.58802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45931.54203703703</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45930.56317129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45763.67392361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45103</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45460.60101851852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45798.44936342593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44518.32188657407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44881.53428240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44572.54736111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44586</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44725.67578703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44809</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44741.63288194445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44462.50556712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44692</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44278.46018518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44551.74547453703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44274.7304050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44414</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44425.66618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44830.3705787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44860.805625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44252.66072916667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44677</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44328.46116898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44328.46275462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44547</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44274.7391087963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44431</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44452.69899305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44722.57311342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44846</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44421</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44588.48373842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44602.56170138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44624.65938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44348</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44357.60618055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44356</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44518.30800925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44645</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44255</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44413</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>44830.36393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44827</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44255</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44740.24939814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44573</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44571</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44809</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44356</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44834</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>44574.31305555555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44574.31621527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44525</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44384</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44851</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44830.37378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44749.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44882.59640046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44313</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44526</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44528</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44518.32844907408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44484.72994212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44809</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44830.37873842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44984.34011574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45187.97777777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44343.63775462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44953</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45387.38473379629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44615</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>45217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44879.56688657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45747.65967592593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45079</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45001</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45279</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45454</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45183.73969907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44606.48096064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45114</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45575.32675925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45343</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45561.36263888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44566.78021990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44266</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45597.48641203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45302</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45485.32336805556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44992.55997685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45762.59148148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44734.48049768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45742.56415509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44748.70547453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44952.48636574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45215.66366898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45484.66387731482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45173.66935185185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>45560.94553240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44937.45157407408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44750.37049768519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45440.54326388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45540</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44271</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>45048.78258101852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45546.97644675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>44398</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44537</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45819.37326388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45429.63706018519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45743.77516203704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45824.46805555555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45279.65524305555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>45889.25898148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45889.25998842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45825.44871527778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45798.44715277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45202.48847222222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>45827.54061342592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44575</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45827.53986111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45894.88730324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44901.56424768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45894.88547453703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45894.48984953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45894.88321759259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44967.7121875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44967.77166666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>45401.83496527778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>45800</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45831.48467592592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>45898.34202546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>45898.35184027778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>45068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>45839.43380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44942</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>45839.60538194444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44935</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45155.49674768518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>45817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44865</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44890.57740740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>45841.67475694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45841.66960648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45470</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>45316.31804398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44914.73873842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45911.59302083333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45237.68737268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44830.34822916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45575.31537037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45726.65693287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44645</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44830.36934027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44830.37002314815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44830.37288194444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45343.63946759259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45187</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45726.66458333333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>45918.37381944444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45923.56734953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45798</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44487</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45861</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44967.70900462963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44967.72672453704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45793.54444444444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45747.65809027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44865</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44911</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45929.54412037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45929.54755787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45926.35297453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45575.33030092593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44931</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45931.48486111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45930.47261574074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45930.47936342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>45930.57724537037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45930.58170138889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>45930.58704861111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>45670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45930.56010416667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>45769.51258101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>45931.55253472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45335.39863425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45693.43223379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45069.55658564815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>45930.5966550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45931.4877662037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45439.67248842592</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45930.59270833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45933.55480324074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45933.55230324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45933.55594907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45215</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45932.48122685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45215.64910879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45726.43296296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44592.5737962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45805.54620370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45880.44321759259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45575.87788194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45937.42811342593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45155.57263888889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44881.58206018519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45939.27697916667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45938.33863425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45938.33969907407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45939.98322916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45621</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45943.4846412037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44455</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45684.5433449074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45484.64741898148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45659.34769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>45945.44903935185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45279.66266203704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45593.49686342593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45945.43571759259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45946.46980324074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44776</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>44951.33428240741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45351.49194444445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44418</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45775.3942824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45114.6471875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45460.61841435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45954.28444444444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45615.60596064815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45243</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45958.58180555556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45484.45675925926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45484.45920138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44539</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44748</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44942.37232638889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45425.47164351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44725.66600694445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45964.66417824074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45603.47010416666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45965.67278935185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45427.4122337963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45964.66202546296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45964.51869212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45099.55199074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45971.47325231481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45971.47230324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45971.56327546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45973.63788194444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45624.7716087963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44433</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45974.56300925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45985</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45982</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45768.82865740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45205</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44676</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45763.67142361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44613</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45992</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45992.34927083334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45294.60003472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45992.30050925926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45161</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45992.30173611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>46034.2150925926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45614.53487268519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45589.30626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45266</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>46041.8458912037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>46041.85267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45602.39106481482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45614.54820601852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45266.74684027778</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>45266.753125</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45266</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45224</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45428.56901620371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45562.4177662037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44942</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44942.36666666667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45279.61494212963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45279</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>46003.55443287037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44942.38266203704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>45775.39275462963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45998</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>46003.57324074074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44935.58886574074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45695.3799074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44819</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45590.60849537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>46048.53619212963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45439.67638888889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45742.57196759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45562.40653935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>46050.52995370371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44503</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45034</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>46055.5268287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44830.38262731482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>46055.3728125</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>46001</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45481.49856481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>46048.53760416667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45061</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45740.59944444444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45453</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>46048.53270833333</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45183.73592592592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45526.61543981481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>46043</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45351.48571759259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45473</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45302</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44265</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45043</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24680,7 +24680,7 @@
         <v>46061.82630787037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>46064.31494212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>46064.35736111111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45427</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45440.54711805555</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>46064</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44637</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>46063</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44998</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45685.62975694444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>46066.58640046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>46066.45733796297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>46069.47415509259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44608.74425925926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44608.74908564815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>46066.30559027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>46066.58723379629</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>46066.58913194444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>46062.32478009259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>46058.70769675926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>46066.57773148148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>46066.58564814815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44448</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>46069.47732638889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>46066.58233796297</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>46066.58420138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>46066.57928240741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>46066.58115740741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>46066.58785879629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>46066.59268518518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>46071.36315972222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45378.45327546296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44725.680625</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44987.29300925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45377.77662037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45607.44199074074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45377</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>46073.49261574074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44742.50715277778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>45243</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45243</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44385.55951388889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45273</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44804</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44434</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44427</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45237</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44516</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44782</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45743.77622685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44573</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>45743.77284722222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44999</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45180.44695601852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44894.51788194444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28049,7 +28049,7 @@
         <v>45476.37353009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44893</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44358</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44358</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>44641</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44494</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>44930</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45266</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44679.62341435185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>44776</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>45229.61693287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45204.63829861111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44725.67675925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>44819</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45775.39516203704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44830.37741898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44830.34554398148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45329.43833333333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45327</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45762.61836805556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45762.61935185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44931.32121527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45343</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45091.86737268518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>44907</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45777.4182175926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45762.59059027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45783.67818287037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45615.55868055556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45781.58949074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45708</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45632</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44903.7278125</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45469.7152662037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45786.57274305556</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45733.33138888889</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45602.42363425926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45589</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45604</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45390.5737037037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45222</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45791.4412037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45793.46055555555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45666.60127314815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45547.65758101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>45644.45380787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>45630</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45689</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45798.36552083334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45798.3758912037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45798.38299768518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45798.36651620371</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45798.38623842593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45798.38446759259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45798.38162037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45803.54116898148</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45805.60946759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45805.60137731482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45805.60756944444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45805.60854166667</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45812.34155092593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -575,7 +575,7 @@
         <v>45596.71262731482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45897.45741898148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45743.77388888889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45596.68342592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45861.36827546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45957.58099537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46010.48835648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45044</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45671.74186342592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45918.58255787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45958.57498842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>46036.42396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45596.64424768519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45597.58802083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45931.54203703703</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45930.56317129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>45763.67392361111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45103</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45460.60101851852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45798.44936342593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44487</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44518.32188657407</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44881.53428240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44425</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44572.54736111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44586</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44725.67578703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44809</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44741.63288194445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44462.50556712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44692</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44278.46018518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44551.74547453703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44274.7304050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44414</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44425.66618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44830.3705787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44860.805625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44252.66072916667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44677</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44328.46116898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44328.46275462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44547</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44274.7391087963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44274</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44431</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44452.69899305556</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44722.57311342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44846</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44421</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44588.48373842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44602.56170138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44624.65938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44348</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44495</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44357.60618055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44356</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44518.30800925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44617</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44645</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44255</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44413</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>44830.36393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44827</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44446</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44255</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44740.24939814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44573</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44474</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44571</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44809</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44356</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44834</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>44574.31305555555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44574.31621527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44525</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44384</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44851</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44830.37378472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44749.55334490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44882.59640046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44313</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44526</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44796</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44528</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44518.32844907408</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44496</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44484.72994212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44809</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44830.37873842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44984.34011574074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45187.97777777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44343.63775462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44953</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45387.38473379629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44615</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>45217</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44879.56688657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45747.65967592593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45079</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45001</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>45279</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45454</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45183.73969907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44606.48096064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>45114</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>45575.32675925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>45343</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45561.36263888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44566.78021990741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44266</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45597.48641203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>45302</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45485.32336805556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44992.55997685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45762.59148148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>45446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44734.48049768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>45742.56415509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>44748.70547453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44952.48636574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45215.66366898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>45484.66387731482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45173.66935185185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>45560.94553240741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>44937.45157407408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44750.37049768519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45440.54326388889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45540</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44271</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>45048.78258101852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45546.97644675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>44398</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44537</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45819.37326388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45429.63706018519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45743.77516203704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45824.46805555555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45279.65524305555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>45889.25898148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45889.25998842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45825.44871527778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>45798.44715277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45202.48847222222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>45827.54061342592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44575</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>45827.53986111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45894.88730324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44901.56424768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45894.88547453703</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>45894.48984953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>45894.88321759259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44967.7121875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44967.77166666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>45401.83496527778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>45800</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45831.48467592592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>45898.34202546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>45898.35184027778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>45068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>45839.43380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>44942</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>45839.60538194444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44935</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45155.49674768518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>45817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44865</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44890.57740740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>45841.67475694444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45841.66960648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45470</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>45316.31804398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44914.73873842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45911.59302083333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45237.68737268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>44830.34822916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45575.31537037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45726.65693287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44645</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44830.36934027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44830.37002314815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44830.37288194444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45343.63946759259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45187</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45726.66458333333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>45918.37381944444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45923.56734953704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45798</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44487</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45861</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45861</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44967.70900462963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44967.72672453704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45793.54444444444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45747.65809027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44865</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44911</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45929.54412037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45929.54755787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45926.35297453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45575.33030092593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44931</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45931.48486111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45930.47261574074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45930.47936342593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>45930.57724537037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45930.58170138889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>45930.58704861111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>45670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>45930.56010416667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>45769.51258101852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>45931.55253472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45335.39863425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45693.43223379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45069.55658564815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>45930.5966550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45931.4877662037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45439.67248842592</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45930.59270833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45933.55480324074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45933.55230324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45933.55594907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45215</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45932.48122685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45215.64910879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45726.43296296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44592.5737962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45805.54620370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45880.44321759259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45575.87788194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45937.42811342593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45155.57263888889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44881.58206018519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45939.27697916667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45938.33863425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45938.33969907407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45939.98322916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45621</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45943.4846412037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44455</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45684.5433449074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45484.64741898148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45659.34769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>45945.44903935185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45279.66266203704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45593.49686342593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45945.43571759259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45946.46980324074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>44776</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>44951.33428240741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45351.49194444445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44418</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45775.3942824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45114.6471875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45460.61841435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45954.28444444444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45615.60596064815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45243</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45958.58180555556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45484.45675925926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45484.45920138889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>44539</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44748</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44942.37232638889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45425.47164351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44725.66600694445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45964.66417824074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45603.47010416666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45965.67278935185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45427.4122337963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45964.66202546296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45964.51869212963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45099.55199074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45971.47325231481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45971.47230324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45971.56327546296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45973.63788194444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45624.7716087963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>44433</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45974.56300925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45985</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45982</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45768.82865740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45205</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44676</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45763.67142361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44613</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45992</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45992.34927083334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45294.60003472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45992.30050925926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45161</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45992.30173611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>46034.2150925926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>45029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>45614.53487268519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>45589.30626157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>45266</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>46041.8458912037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>46041.85267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45602.39106481482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45614.54820601852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45266.74684027778</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>45266.753125</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45266</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45224</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45428.56901620371</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45562.4177662037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44942</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44942.36666666667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45279.61494212963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45279</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>46003.55443287037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>44271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44942.38266203704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>45775.39275462963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45998</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>46003.57324074074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44935.58886574074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45695.3799074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44819</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45590.60849537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>46048.53619212963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45439.67638888889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45187</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45742.57196759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45562.40653935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>46050.52995370371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>44503</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45034</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>46055.5268287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44830.38262731482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>46055.3728125</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>46001</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45481.49856481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>46048.53760416667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45061</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45740.59944444444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45453</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>46048.53270833333</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45183.73592592592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45526.61543981481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>46043</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45351.48571759259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45473</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45302</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44265</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45043</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24680,7 +24680,7 @@
         <v>46061.82630787037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>46064.31494212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>46064.35736111111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45427</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45440.54711805555</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>46064</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44637</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>46063</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44998</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45685.62975694444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>46066.58640046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>46066.45733796297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>46069.47415509259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44608.74425925926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44608.74908564815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>46066.30559027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>46066.58723379629</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>46066.58913194444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>46062.32478009259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>46058.70769675926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>46066.57773148148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>46066.58564814815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44448</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>46069.47732638889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>46066.58233796297</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>46066.58420138889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>46066.57928240741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>46066.58115740741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>46066.58785879629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>46066.59268518518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>46071.36315972222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45378.45327546296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44725.680625</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44987.29300925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>45377.77662037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45607.44199074074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45377</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>46073.49261574074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44742.50715277778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>45243</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>44949</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45243</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44385.55951388889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45273</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44804</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44434</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44427</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45237</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44516</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44782</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45743.77622685185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44573</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>45743.77284722222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44999</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45180.44695601852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44894.51788194444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28049,7 +28049,7 @@
         <v>45476.37353009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44893</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44358</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44358</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>44641</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44494</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>44930</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45266</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44679.62341435185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>44776</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>45229.61693287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45204.63829861111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44725.67675925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>44819</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>45775.39516203704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44830.37741898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44830.34554398148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45329.43833333333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45327</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45762.61836805556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45762.61935185185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44931.32121527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45343</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45091.86737268518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>44907</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45777.4182175926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45762.59059027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45783.67818287037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45615.55868055556</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>45781.58949074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>45708</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45632</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30057,7 +30057,7 @@
         <v>44903.7278125</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45469.7152662037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45786.57274305556</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45733.33138888889</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45602.42363425926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45589</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45604</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45390.5737037037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45222</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45791.4412037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45793.46055555555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45666.60127314815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45547.65758101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>45644.45380787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>45630</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45689</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45798.36552083334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31103,7 +31103,7 @@
         <v>45798.3758912037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45798.38299768518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45798.36651620371</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45798.38623842593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45798.38446759259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45798.38162037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45803.54116898148</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45805.60946759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45805.60137731482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45805.60756944444</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45805.60854166667</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>45812.34155092593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>

--- a/Översikt MOTALA.xlsx
+++ b/Översikt MOTALA.xlsx
@@ -575,7 +575,7 @@
         <v>45596.71262731482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45897.45741898148</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45743.77388888889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45596.68342592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45861.36827546296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>45957.58099537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>46010.48835648148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45918.58255787037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45958.57498842593</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>45671.74186342592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45596.64424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>46036.42396990741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45597.58802083333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>45044</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44544</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44874</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45930.56317129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45103</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45931.54203703703</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>45763.67392361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45460.60101851852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45798.44936342593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44572.54736111111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44487</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44468</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44518.32188657407</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44881.53428240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44586</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44725.67578703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44809</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44741.63288194445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44462.50556712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44628</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44692</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44278.46018518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44551.74547453703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44274.7304050926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44413</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>44414</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44425.66618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44860.805625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>44830.3705787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44819</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44328.46116898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44328.46275462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44547</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44274.7391087963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44274</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44452.69899305556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44722.57311342593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44452</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44421</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44588.48373842592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44602.56170138889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44624.65938657407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44356</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44518.30800925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44357.60618055556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44565</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44645</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44255</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44413</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44830.36393518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>44827</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44606</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44255</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44740.24939814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44573</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44474</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44571</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44809</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44356</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>44834</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44574.31305555555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44574.31621527778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>44799</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44384</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44525</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44851</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44830.37378472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44749.55334490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44882.59640046296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44313</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44526</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>44528</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44501</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44518.32844907408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44455</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44496</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44455</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44484.72994212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44809</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44830.37873842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45215.64910879629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45335.39863425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45377</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45378.45327546296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45069.55658564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45439.67248842592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45440.54326388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44830.38262731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44385.55951388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44343.63775462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45427</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45302</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>45387.38473379629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44853</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>45470</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>45279.61494212963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45279</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44894.51788194444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>45279.66266203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44942.37232638889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>45092</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>45266.74684027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>45266.753125</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>45266</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>45481.49856481481</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>45526.61543981481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45485.32336805556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45560.94553240741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45575.87788194444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44953</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>45805.60137731482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45805.60756944444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45805.60854166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45805.60946759259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>44539</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45202.48847222222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45001</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45798.44715277778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45812.34155092593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45827.54061342592</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45889.25998842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45575.32675925926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>45889.25898148148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>45894.48984953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>45819.37326388889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>45817</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45440.54711805555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45827.53986111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45824.46805555555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45343.63946759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45894.88730324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45894.88547453703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44901.56424768519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44907</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45894.88321759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45898.34202546296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45229.61693287037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45825.44871527778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44951.33428240741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45800</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45831.48467592592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44433</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45898.35184027778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44911</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44679.62341435185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45695.3799074074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44271</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45453</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45740.59944444444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45839.60538194444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45839.43380787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>45607.44199074074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>45180.44695601852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>45841.66960648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>45762.59148148148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45841.67475694444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>45817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>45316.31804398148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44942</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44942.36666666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44952.48636574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>45911.59302083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45575.31537037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44503</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45726.65693287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45726.66458333333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45805</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45803</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>44271</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>45615.60596064815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45918.37381944444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44999</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45798</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45861</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45861</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45793.54444444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45747.65809027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45614.53487268519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45923.56734953704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>45099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44266</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45926.35297453704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45930.57724537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45930.58170138889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45769.51258101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45929.54755787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45930.56010416667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45929.54412037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45930.58704861111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45930.59270833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45930.5966550926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45930.47261574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45930.47936342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45931.4877662037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45931.48486111111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45575.33030092593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45114</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45693.43223379629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>45484.66387731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45805.54620370371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>45932.48122685185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>45880.44321759259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45931.55253472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45742.57196759259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>44398</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44819</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45155.57263888889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45775.39275462963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>45762.61836805556</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
         <v>45762.61935185185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>45933.55230324074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45933.55594907407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>45933.55480324074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44935</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45938.33863425926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45938.33969907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45937.42811342593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45215.66366898148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45939.27697916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44334</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44455</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44615</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45939.98322916667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45043</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>45243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         <v>45243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45943.4846412037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44418</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44427</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45946.46980324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45945.44903935185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45945.43571759259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44881.58206018519</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44890.57740740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44750.37049768519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44879.56688657407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45562.40653935185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45279.65524305555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45954.28444444444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45183.73969907407</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44998</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45958.58180555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45684.5433449074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44893</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45964.66417824074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45964.51869212963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45964.66202546296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45964</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45237</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45329.43833333333</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44676</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45965.67278935185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>45593.49686342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44628</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44865</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45971.47230324074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45069</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45971.56327546296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45029</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>45971.47325231481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45428.56901620371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>45973.63788194444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45974.56300925926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44516</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44984</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44987.29300925926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>45982</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45173.66935185185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45985</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45602.39106481482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45343</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45484.45675925926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45484.45920138889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44606.48096064815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45187.97777777778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45992.30050925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45377.77662037037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45992.34927083334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45439.67638888889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45992.30173611111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45473</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45187</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44645</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45427.4122337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45726.43296296296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45351.48571759259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45597.48641203704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45624.7716087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>46041.8458912037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>46041.85267361111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>45183.73592592592</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45590.60849537037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45621</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45998</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>45224</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44608.74425925926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44608.74908564815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45685.62975694444</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>45351.49194444445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>45775.3942824074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>46048.53619212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>46003.55443287037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>46003.57324074074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45099.55199074074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45614.54820601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>46050.52995370371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>45561.36263888889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44748.70547453704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44748</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44725.67675925926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45237.68737268518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44776</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44265</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>46001</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>46048.53270833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>46055.3728125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45155.49674768518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>45187</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23007,7 +23007,7 @@
         <v>46048.53760416667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>46043</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45302</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>46061.82630787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44734.48049768519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>46063</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45266</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>46064.31494212963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>45768.82865740741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>46064.35736111111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44725.680625</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>46066.57773148148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>46066.58564814815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>46066.58723379629</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>46066.58233796297</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>46066.58420138889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44958</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>46066.45733796297</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>46066.58913194444</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>46066.58640046296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>46064</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>46066.30559027778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>46066.57928240741</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>46066.58115740741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>46066.58785879629</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45273</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>46066.59268518518</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45546.97644675926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44830.34554398148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44830.34822916667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44830.36934027778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44830.37002314815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44830.37288194444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>46069.47415509259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>46069.47732638889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>46071.36315972222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>45343</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44776</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44967.70900462963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44967.72672453704</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>46073.49261574074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45205</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45243</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>44494</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44914.73873842593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45048.78258101852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>46034.2150925926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>44358</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44935.58886574074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45540</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44358</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>45562.4177662037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26220,7 +26220,7 @@
         <v>44992.55997685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>46077</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>44637</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>44641</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>44592.5737962963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>46080.21711805555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>46080.68768518518</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>46080.69315972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>46080.69086805556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45401.83496527778</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>46080.68115740741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>46080.68550925926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>46062.32478009259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>46058.70769675926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>46055.5268287037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45476.37353009259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45425.47164351852</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45775.39516203704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44930</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44487</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44573</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44887</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45484.64741898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44931.32121527778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45068</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>44575</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>44459</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44742.50715277778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44613</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45030</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>44725.66600694445</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>44566.78021990741</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>45034</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44942</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45217</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>44747</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>45659.34769675926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44865</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45091.86737268518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45743.77284722222</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44830.37741898148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45114.6471875</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45743.77516203704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45747.65967592593</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45294.60003472222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44949</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44942.38266203704</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45743.77622685185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>45061</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45603.47010416666</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44935</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45079</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45763.67142361111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45279</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>44937.45157407408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45742.56415509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>45589.30626157407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>45460.61841435185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>45222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>44967.7121875</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44967.77166666667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44984.34011574074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45204.63829861111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45266</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45429.63706018519</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45454</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45215</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45777.4182175926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45781.58949074074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>45762.59059027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>45708</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45783.67818287037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45615.55868055556</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45469.7152662037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45589</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44903.7278125</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45733.33138888889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45786.57274305556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>45604</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>45602.42363425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>45632</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45791.4412037037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45390.5737037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>45222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45666.60127314815</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>45629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45793.46055555555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45644.45380787037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>45630</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>45689</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>45547.65758101852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31693,7 +31693,7 @@
         <v>45798.38162037037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45798.36552083334</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45798.38299768518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45798.38446759259</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45798.36651620371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45798.3758912037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>45798.38623842593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45803.54116898148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
